--- a/natmiOut/OldD4/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>74.9390345767488</v>
+        <v>96.60110933333333</v>
       </c>
       <c r="H2">
-        <v>74.9390345767488</v>
+        <v>289.803328</v>
       </c>
       <c r="I2">
-        <v>0.1312137404221981</v>
+        <v>0.1481994495772009</v>
       </c>
       <c r="J2">
-        <v>0.1312137404221981</v>
+        <v>0.1555774554226776</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.2570382321814</v>
+        <v>43.37692366666667</v>
       </c>
       <c r="N2">
-        <v>41.2570382321814</v>
+        <v>130.130771</v>
       </c>
       <c r="O2">
-        <v>0.9945425783980903</v>
+        <v>0.9914401803448945</v>
       </c>
       <c r="P2">
-        <v>0.9945425783980903</v>
+        <v>0.9931650303696206</v>
       </c>
       <c r="Q2">
-        <v>3091.762614615689</v>
+        <v>4190.258945667321</v>
       </c>
       <c r="R2">
-        <v>3091.762614615689</v>
+        <v>37712.33051100589</v>
       </c>
       <c r="S2">
-        <v>0.1304976517207507</v>
+        <v>0.1469308890158341</v>
       </c>
       <c r="T2">
-        <v>0.1304976517207507</v>
+        <v>0.1545140882396918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>74.9390345767488</v>
+        <v>96.60110933333333</v>
       </c>
       <c r="H3">
-        <v>74.9390345767488</v>
+        <v>289.803328</v>
       </c>
       <c r="I3">
-        <v>0.1312137404221981</v>
+        <v>0.1481994495772009</v>
       </c>
       <c r="J3">
-        <v>0.1312137404221981</v>
+        <v>0.1555774554226776</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.226392571388727</v>
+        <v>0.064626</v>
       </c>
       <c r="N3">
-        <v>0.226392571388727</v>
+        <v>0.193878</v>
       </c>
       <c r="O3">
-        <v>0.00545742160190963</v>
+        <v>0.001477117501170476</v>
       </c>
       <c r="P3">
-        <v>0.00545742160190963</v>
+        <v>0.001479687304380924</v>
       </c>
       <c r="Q3">
-        <v>16.96564073521888</v>
+        <v>6.242943291776</v>
       </c>
       <c r="R3">
-        <v>16.96564073521888</v>
+        <v>56.186489625984</v>
       </c>
       <c r="S3">
-        <v>0.000716088701447467</v>
+        <v>0.0002189080006343149</v>
       </c>
       <c r="T3">
-        <v>0.000716088701447467</v>
+        <v>0.0002302059856368251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>208.119315690732</v>
+        <v>96.60110933333333</v>
       </c>
       <c r="H4">
-        <v>208.119315690732</v>
+        <v>289.803328</v>
       </c>
       <c r="I4">
-        <v>0.364404399124219</v>
+        <v>0.1481994495772009</v>
       </c>
       <c r="J4">
-        <v>0.364404399124219</v>
+        <v>0.1555774554226776</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>41.2570382321814</v>
+        <v>0.05151033333333333</v>
       </c>
       <c r="N4">
-        <v>41.2570382321814</v>
+        <v>0.154531</v>
       </c>
       <c r="O4">
-        <v>0.9945425783980903</v>
+        <v>0.001177340619221236</v>
       </c>
       <c r="P4">
-        <v>0.9945425783980903</v>
+        <v>0.001179388888029011</v>
       </c>
       <c r="Q4">
-        <v>8586.386564307961</v>
+        <v>4.975955342129777</v>
       </c>
       <c r="R4">
-        <v>8586.386564307961</v>
+        <v>44.78359807916799</v>
       </c>
       <c r="S4">
-        <v>0.3624156906846076</v>
+        <v>0.000174481231733468</v>
       </c>
       <c r="T4">
-        <v>0.3624156906846076</v>
+        <v>0.0001834863221533346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>208.119315690732</v>
+        <v>96.60110933333333</v>
       </c>
       <c r="H5">
-        <v>208.119315690732</v>
+        <v>289.803328</v>
       </c>
       <c r="I5">
-        <v>0.364404399124219</v>
+        <v>0.1481994495772009</v>
       </c>
       <c r="J5">
-        <v>0.364404399124219</v>
+        <v>0.1555774554226776</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.226392571388727</v>
+        <v>0.030416</v>
       </c>
       <c r="N5">
-        <v>0.226392571388727</v>
+        <v>0.091248</v>
       </c>
       <c r="O5">
-        <v>0.00545742160190963</v>
+        <v>0.000695200165809445</v>
       </c>
       <c r="P5">
-        <v>0.00545742160190963</v>
+        <v>0.0006964096346679382</v>
       </c>
       <c r="Q5">
-        <v>47.11666703488706</v>
+        <v>2.938219341482666</v>
       </c>
       <c r="R5">
-        <v>47.11666703488706</v>
+        <v>26.44397407334399</v>
       </c>
       <c r="S5">
-        <v>0.001988708439611412</v>
+        <v>0.0001030282819189385</v>
       </c>
       <c r="T5">
-        <v>0.001988708439611412</v>
+        <v>0.0001083456388934743</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>85.29036140950829</v>
+        <v>96.60110933333333</v>
       </c>
       <c r="H6">
-        <v>85.29036140950829</v>
+        <v>289.803328</v>
       </c>
       <c r="I6">
-        <v>0.1493382908615022</v>
+        <v>0.1481994495772009</v>
       </c>
       <c r="J6">
-        <v>0.1493382908615022</v>
+        <v>0.1555774554226776</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.2570382321814</v>
+        <v>0.227952</v>
       </c>
       <c r="N6">
-        <v>41.2570382321814</v>
+        <v>0.455904</v>
       </c>
       <c r="O6">
-        <v>0.9945425783980903</v>
+        <v>0.005210161368904348</v>
       </c>
       <c r="P6">
-        <v>0.9945425783980903</v>
+        <v>0.003479483803301461</v>
       </c>
       <c r="Q6">
-        <v>3518.827701508653</v>
+        <v>22.020416074752</v>
       </c>
       <c r="R6">
-        <v>3518.827701508653</v>
+        <v>132.122496448512</v>
       </c>
       <c r="S6">
-        <v>0.1485232888469624</v>
+        <v>0.0007721430470800197</v>
       </c>
       <c r="T6">
-        <v>0.1485232888469624</v>
+        <v>0.0005413292363020617</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>85.29036140950829</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H7">
-        <v>85.29036140950829</v>
+        <v>666.194488</v>
       </c>
       <c r="I7">
-        <v>0.1493382908615022</v>
+        <v>0.340678132008771</v>
       </c>
       <c r="J7">
-        <v>0.1493382908615022</v>
+        <v>0.3576385543082981</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.226392571388727</v>
+        <v>43.37692366666667</v>
       </c>
       <c r="N7">
-        <v>0.226392571388727</v>
+        <v>130.130771</v>
       </c>
       <c r="O7">
-        <v>0.00545742160190963</v>
+        <v>0.9914401803448945</v>
       </c>
       <c r="P7">
-        <v>0.00545742160190963</v>
+        <v>0.9931650303696206</v>
       </c>
       <c r="Q7">
-        <v>19.30910423417243</v>
+        <v>9632.489151043361</v>
       </c>
       <c r="R7">
-        <v>19.30910423417243</v>
+        <v>86692.40235939025</v>
       </c>
       <c r="S7">
-        <v>0.0008150020145398258</v>
+        <v>0.3377619886383376</v>
       </c>
       <c r="T7">
-        <v>0.0008150020145398258</v>
+        <v>0.355194105650948</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>131.914372655243</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H8">
-        <v>131.914372655243</v>
+        <v>666.194488</v>
       </c>
       <c r="I8">
-        <v>0.2309741291611541</v>
+        <v>0.340678132008771</v>
       </c>
       <c r="J8">
-        <v>0.2309741291611541</v>
+        <v>0.3576385543082981</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>41.2570382321814</v>
+        <v>0.064626</v>
       </c>
       <c r="N8">
-        <v>41.2570382321814</v>
+        <v>0.193878</v>
       </c>
       <c r="O8">
-        <v>0.9945425783980903</v>
+        <v>0.001477117501170476</v>
       </c>
       <c r="P8">
-        <v>0.9945425783980903</v>
+        <v>0.001479687304380924</v>
       </c>
       <c r="Q8">
-        <v>5442.396316011585</v>
+        <v>14.351161660496</v>
       </c>
       <c r="R8">
-        <v>5442.396316011585</v>
+        <v>129.160454944464</v>
       </c>
       <c r="S8">
-        <v>0.2297136059591877</v>
+        <v>0.0005032216310562213</v>
       </c>
       <c r="T8">
-        <v>0.2297136059591877</v>
+        <v>0.0005291932283671361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>131.914372655243</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H9">
-        <v>131.914372655243</v>
+        <v>666.194488</v>
       </c>
       <c r="I9">
-        <v>0.2309741291611541</v>
+        <v>0.340678132008771</v>
       </c>
       <c r="J9">
-        <v>0.2309741291611541</v>
+        <v>0.3576385543082981</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.226392571388727</v>
+        <v>0.05151033333333333</v>
       </c>
       <c r="N9">
-        <v>0.226392571388727</v>
+        <v>0.154531</v>
       </c>
       <c r="O9">
-        <v>0.00545742160190963</v>
+        <v>0.001177340619221236</v>
       </c>
       <c r="P9">
-        <v>0.00545742160190963</v>
+        <v>0.001179388888029011</v>
       </c>
       <c r="Q9">
-        <v>29.86443402855124</v>
+        <v>11.43863338056978</v>
       </c>
       <c r="R9">
-        <v>29.86443402855124</v>
+        <v>102.947700425128</v>
       </c>
       <c r="S9">
-        <v>0.001260523201966347</v>
+        <v>0.0004010942028943404</v>
       </c>
       <c r="T9">
-        <v>0.001260523201966347</v>
+        <v>0.0004217949368819666</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>70.8587687269232</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H10">
-        <v>70.8587687269232</v>
+        <v>666.194488</v>
       </c>
       <c r="I10">
-        <v>0.1240694404309265</v>
+        <v>0.340678132008771</v>
       </c>
       <c r="J10">
-        <v>0.1240694404309265</v>
+        <v>0.3576385543082981</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>41.2570382321814</v>
+        <v>0.030416</v>
       </c>
       <c r="N10">
-        <v>41.2570382321814</v>
+        <v>0.091248</v>
       </c>
       <c r="O10">
-        <v>0.9945425783980903</v>
+        <v>0.000695200165809445</v>
       </c>
       <c r="P10">
-        <v>0.9945425783980903</v>
+        <v>0.0006964096346679382</v>
       </c>
       <c r="Q10">
-        <v>2923.42293045197</v>
+        <v>6.754323849002667</v>
       </c>
       <c r="R10">
-        <v>2923.42293045197</v>
+        <v>60.78891464102399</v>
       </c>
       <c r="S10">
-        <v>0.1233923411865819</v>
+        <v>0.0002368394938601496</v>
       </c>
       <c r="T10">
-        <v>0.1233923411865819</v>
+        <v>0.0002490629349490114</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>70.8587687269232</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H11">
-        <v>70.8587687269232</v>
+        <v>666.194488</v>
       </c>
       <c r="I11">
-        <v>0.1240694404309265</v>
+        <v>0.340678132008771</v>
       </c>
       <c r="J11">
-        <v>0.1240694404309265</v>
+        <v>0.3576385543082981</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.226392571388727</v>
+        <v>0.227952</v>
       </c>
       <c r="N11">
-        <v>0.226392571388727</v>
+        <v>0.455904</v>
       </c>
       <c r="O11">
-        <v>0.00545742160190963</v>
+        <v>0.005210161368904348</v>
       </c>
       <c r="P11">
-        <v>0.00545742160190963</v>
+        <v>0.003479483803301461</v>
       </c>
       <c r="Q11">
-        <v>16.04189885752726</v>
+        <v>50.620121976192</v>
       </c>
       <c r="R11">
-        <v>16.04189885752726</v>
+        <v>303.720731857152</v>
       </c>
       <c r="S11">
-        <v>0.0006770992443445781</v>
+        <v>0.001774988042622594</v>
       </c>
       <c r="T11">
-        <v>0.0006770992443445781</v>
+        <v>0.001244397557151873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>86.95694233333334</v>
+      </c>
+      <c r="H12">
+        <v>260.870827</v>
+      </c>
+      <c r="I12">
+        <v>0.1334039648162674</v>
+      </c>
+      <c r="J12">
+        <v>0.1400453878109693</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>43.37692366666667</v>
+      </c>
+      <c r="N12">
+        <v>130.130771</v>
+      </c>
+      <c r="O12">
+        <v>0.9914401803448945</v>
+      </c>
+      <c r="P12">
+        <v>0.9931650303696206</v>
+      </c>
+      <c r="Q12">
+        <v>3771.924649879736</v>
+      </c>
+      <c r="R12">
+        <v>33947.32184891762</v>
+      </c>
+      <c r="S12">
+        <v>0.1322620509361641</v>
+      </c>
+      <c r="T12">
+        <v>0.1390881818384066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>86.95694233333334</v>
+      </c>
+      <c r="H13">
+        <v>260.870827</v>
+      </c>
+      <c r="I13">
+        <v>0.1334039648162674</v>
+      </c>
+      <c r="J13">
+        <v>0.1400453878109693</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.064626</v>
+      </c>
+      <c r="N13">
+        <v>0.193878</v>
+      </c>
+      <c r="O13">
+        <v>0.001477117501170476</v>
+      </c>
+      <c r="P13">
+        <v>0.001479687304380924</v>
+      </c>
+      <c r="Q13">
+        <v>5.619679355234001</v>
+      </c>
+      <c r="R13">
+        <v>50.577114197106</v>
+      </c>
+      <c r="S13">
+        <v>0.000197053331155639</v>
+      </c>
+      <c r="T13">
+        <v>0.0002072233823809943</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>86.95694233333334</v>
+      </c>
+      <c r="H14">
+        <v>260.870827</v>
+      </c>
+      <c r="I14">
+        <v>0.1334039648162674</v>
+      </c>
+      <c r="J14">
+        <v>0.1400453878109693</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.05151033333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.154531</v>
+      </c>
+      <c r="O14">
+        <v>0.001177340619221236</v>
+      </c>
+      <c r="P14">
+        <v>0.001179388888029011</v>
+      </c>
+      <c r="Q14">
+        <v>4.479181085237445</v>
+      </c>
+      <c r="R14">
+        <v>40.312629767137</v>
+      </c>
+      <c r="S14">
+        <v>0.0001570619065433523</v>
+      </c>
+      <c r="T14">
+        <v>0.0001651679742039706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>86.95694233333334</v>
+      </c>
+      <c r="H15">
+        <v>260.870827</v>
+      </c>
+      <c r="I15">
+        <v>0.1334039648162674</v>
+      </c>
+      <c r="J15">
+        <v>0.1400453878109693</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.030416</v>
+      </c>
+      <c r="N15">
+        <v>0.091248</v>
+      </c>
+      <c r="O15">
+        <v>0.000695200165809445</v>
+      </c>
+      <c r="P15">
+        <v>0.0006964096346679382</v>
+      </c>
+      <c r="Q15">
+        <v>2.644882358010667</v>
+      </c>
+      <c r="R15">
+        <v>23.803941222096</v>
+      </c>
+      <c r="S15">
+        <v>9.274245845990647E-05</v>
+      </c>
+      <c r="T15">
+        <v>9.752895736236686E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>86.95694233333334</v>
+      </c>
+      <c r="H16">
+        <v>260.870827</v>
+      </c>
+      <c r="I16">
+        <v>0.1334039648162674</v>
+      </c>
+      <c r="J16">
+        <v>0.1400453878109693</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.227952</v>
+      </c>
+      <c r="N16">
+        <v>0.455904</v>
+      </c>
+      <c r="O16">
+        <v>0.005210161368904348</v>
+      </c>
+      <c r="P16">
+        <v>0.003479483803301461</v>
+      </c>
+      <c r="Q16">
+        <v>19.822008918768</v>
+      </c>
+      <c r="R16">
+        <v>118.932053512608</v>
+      </c>
+      <c r="S16">
+        <v>0.0006950561839443912</v>
+      </c>
+      <c r="T16">
+        <v>0.0004872856586153396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>153.4727276666667</v>
+      </c>
+      <c r="H17">
+        <v>460.418183</v>
+      </c>
+      <c r="I17">
+        <v>0.2354483703373308</v>
+      </c>
+      <c r="J17">
+        <v>0.2471700026214768</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>43.37692366666667</v>
+      </c>
+      <c r="N17">
+        <v>130.130771</v>
+      </c>
+      <c r="O17">
+        <v>0.9914401803448945</v>
+      </c>
+      <c r="P17">
+        <v>0.9931650303696206</v>
+      </c>
+      <c r="Q17">
+        <v>6657.174792912121</v>
+      </c>
+      <c r="R17">
+        <v>59914.5731362091</v>
+      </c>
+      <c r="S17">
+        <v>0.2334329747491547</v>
+      </c>
+      <c r="T17">
+        <v>0.2454806031600182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>153.4727276666667</v>
+      </c>
+      <c r="H18">
+        <v>460.418183</v>
+      </c>
+      <c r="I18">
+        <v>0.2354483703373308</v>
+      </c>
+      <c r="J18">
+        <v>0.2471700026214768</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.064626</v>
+      </c>
+      <c r="N18">
+        <v>0.193878</v>
+      </c>
+      <c r="O18">
+        <v>0.001477117501170476</v>
+      </c>
+      <c r="P18">
+        <v>0.001479687304380924</v>
+      </c>
+      <c r="Q18">
+        <v>9.918328498186</v>
+      </c>
+      <c r="R18">
+        <v>89.264956483674</v>
+      </c>
+      <c r="S18">
+        <v>0.0003477849084473389</v>
+      </c>
+      <c r="T18">
+        <v>0.0003657343149027989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>153.4727276666667</v>
+      </c>
+      <c r="H19">
+        <v>460.418183</v>
+      </c>
+      <c r="I19">
+        <v>0.2354483703373308</v>
+      </c>
+      <c r="J19">
+        <v>0.2471700026214768</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.05151033333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.154531</v>
+      </c>
+      <c r="O19">
+        <v>0.001177340619221236</v>
+      </c>
+      <c r="P19">
+        <v>0.001179388888029011</v>
+      </c>
+      <c r="Q19">
+        <v>7.905431359685888</v>
+      </c>
+      <c r="R19">
+        <v>71.148882237173</v>
+      </c>
+      <c r="S19">
+        <v>0.0002772029301275839</v>
+      </c>
+      <c r="T19">
+        <v>0.0002915095545458712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>153.4727276666667</v>
+      </c>
+      <c r="H20">
+        <v>460.418183</v>
+      </c>
+      <c r="I20">
+        <v>0.2354483703373308</v>
+      </c>
+      <c r="J20">
+        <v>0.2471700026214768</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.030416</v>
+      </c>
+      <c r="N20">
+        <v>0.091248</v>
+      </c>
+      <c r="O20">
+        <v>0.000695200165809445</v>
+      </c>
+      <c r="P20">
+        <v>0.0006964096346679382</v>
+      </c>
+      <c r="Q20">
+        <v>4.668026484709332</v>
+      </c>
+      <c r="R20">
+        <v>42.012238362384</v>
+      </c>
+      <c r="S20">
+        <v>0.000163683746098076</v>
+      </c>
+      <c r="T20">
+        <v>0.000172131571226496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>153.4727276666667</v>
+      </c>
+      <c r="H21">
+        <v>460.418183</v>
+      </c>
+      <c r="I21">
+        <v>0.2354483703373308</v>
+      </c>
+      <c r="J21">
+        <v>0.2471700026214768</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.227952</v>
+      </c>
+      <c r="N21">
+        <v>0.455904</v>
+      </c>
+      <c r="O21">
+        <v>0.005210161368904348</v>
+      </c>
+      <c r="P21">
+        <v>0.003479483803301461</v>
+      </c>
+      <c r="Q21">
+        <v>34.984415217072</v>
+      </c>
+      <c r="R21">
+        <v>209.906491302432</v>
+      </c>
+      <c r="S21">
+        <v>0.001226724003503045</v>
+      </c>
+      <c r="T21">
+        <v>0.0008600240207834083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>92.73616000000001</v>
+      </c>
+      <c r="H22">
+        <v>185.47232</v>
+      </c>
+      <c r="I22">
+        <v>0.14227008326043</v>
+      </c>
+      <c r="J22">
+        <v>0.09956859983657813</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>43.37692366666667</v>
+      </c>
+      <c r="N22">
+        <v>130.130771</v>
+      </c>
+      <c r="O22">
+        <v>0.9914401803448945</v>
+      </c>
+      <c r="P22">
+        <v>0.9931650303696206</v>
+      </c>
+      <c r="Q22">
+        <v>4022.609333459788</v>
+      </c>
+      <c r="R22">
+        <v>24135.65600075872</v>
+      </c>
+      <c r="S22">
+        <v>0.1410522770054039</v>
+      </c>
+      <c r="T22">
+        <v>0.09888805148055572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>92.73616000000001</v>
+      </c>
+      <c r="H23">
+        <v>185.47232</v>
+      </c>
+      <c r="I23">
+        <v>0.14227008326043</v>
+      </c>
+      <c r="J23">
+        <v>0.09956859983657813</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.064626</v>
+      </c>
+      <c r="N23">
+        <v>0.193878</v>
+      </c>
+      <c r="O23">
+        <v>0.001477117501170476</v>
+      </c>
+      <c r="P23">
+        <v>0.001479687304380924</v>
+      </c>
+      <c r="Q23">
+        <v>5.993167076160001</v>
+      </c>
+      <c r="R23">
+        <v>35.95900245696</v>
+      </c>
+      <c r="S23">
+        <v>0.0002101496298769619</v>
+      </c>
+      <c r="T23">
+        <v>0.0001473303930931692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>92.73616000000001</v>
+      </c>
+      <c r="H24">
+        <v>185.47232</v>
+      </c>
+      <c r="I24">
+        <v>0.14227008326043</v>
+      </c>
+      <c r="J24">
+        <v>0.09956859983657813</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05151033333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.154531</v>
+      </c>
+      <c r="O24">
+        <v>0.001177340619221236</v>
+      </c>
+      <c r="P24">
+        <v>0.001179388888029011</v>
+      </c>
+      <c r="Q24">
+        <v>4.776870513653334</v>
+      </c>
+      <c r="R24">
+        <v>28.66122308192</v>
+      </c>
+      <c r="S24">
+        <v>0.0001675003479224915</v>
+      </c>
+      <c r="T24">
+        <v>0.0001174301002438674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>92.73616000000001</v>
+      </c>
+      <c r="H25">
+        <v>185.47232</v>
+      </c>
+      <c r="I25">
+        <v>0.14227008326043</v>
+      </c>
+      <c r="J25">
+        <v>0.09956859983657813</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.030416</v>
+      </c>
+      <c r="N25">
+        <v>0.091248</v>
+      </c>
+      <c r="O25">
+        <v>0.000695200165809445</v>
+      </c>
+      <c r="P25">
+        <v>0.0006964096346679382</v>
+      </c>
+      <c r="Q25">
+        <v>2.82066304256</v>
+      </c>
+      <c r="R25">
+        <v>16.92397825536</v>
+      </c>
+      <c r="S25">
+        <v>9.890618547237448E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.93405322365895E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>92.73616000000001</v>
+      </c>
+      <c r="H26">
+        <v>185.47232</v>
+      </c>
+      <c r="I26">
+        <v>0.14227008326043</v>
+      </c>
+      <c r="J26">
+        <v>0.09956859983657813</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.227952</v>
+      </c>
+      <c r="N26">
+        <v>0.455904</v>
+      </c>
+      <c r="O26">
+        <v>0.005210161368904348</v>
+      </c>
+      <c r="P26">
+        <v>0.003479483803301461</v>
+      </c>
+      <c r="Q26">
+        <v>21.13939314432</v>
+      </c>
+      <c r="R26">
+        <v>84.55757257728001</v>
+      </c>
+      <c r="S26">
+        <v>0.0007412500917542975</v>
+      </c>
+      <c r="T26">
+        <v>0.0003464473304487781</v>
       </c>
     </row>
   </sheetData>
